--- a/Framework_DX11/Tools/Bin/Resources/Textures/Item/ItemList.xlsx
+++ b/Framework_DX11/Tools/Bin/Resources/Textures/Item/ItemList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1112\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Tools\Bin\Resources\Textures\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC2445-0194-466E-87C9-AFF8A5080201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E644A-D969-4847-A9C7-963F76335E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
+    <workbookView xWindow="10905" yWindow="60" windowWidth="12270" windowHeight="11385" xr2:uid="{282AE31B-0563-4F3E-BF3E-53D8CB3A4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3090,12 +3090,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3112,8 +3118,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3452,23 +3461,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073B7ACB-FE08-4DD9-AF26-7D345D9FFBBA}">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.69921875" customWidth="1"/>
-    <col min="3" max="3" width="63.19921875" customWidth="1"/>
+    <col min="2" max="2" width="64.75" customWidth="1"/>
+    <col min="3" max="3" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1">
         <f>COUNTA(B3:B475)</f>
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3504,7 +3513,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3515,7 +3524,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3548,7 +3557,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3570,7 +3579,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3614,7 +3623,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3636,7 +3645,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3724,7 +3733,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3768,7 +3777,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3801,7 +3810,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -3911,7 +3920,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -4076,7 +4085,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -4087,7 +4096,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -4098,7 +4107,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
@@ -4186,7 +4195,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -4197,7 +4206,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
@@ -4219,7 +4228,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -4230,18 +4239,18 @@
         <v>741</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71">
+    <row r="71" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -4263,29 +4272,29 @@
         <v>744</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74">
+    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75">
+    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
@@ -4296,18 +4305,18 @@
         <v>747</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77">
+    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
@@ -4340,7 +4349,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -4362,7 +4371,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>80</v>
       </c>
@@ -4373,29 +4382,29 @@
         <v>754</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84">
+    <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85">
+    <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
@@ -4406,18 +4415,18 @@
         <v>757</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87">
+    <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -4428,7 +4437,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
@@ -4439,18 +4448,18 @@
         <v>760</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90">
+    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
@@ -4461,7 +4470,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -4483,7 +4492,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
@@ -4494,40 +4503,40 @@
         <v>765</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95">
+    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96">
+    <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97">
+    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
@@ -4549,7 +4558,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
@@ -4560,7 +4569,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -4571,7 +4580,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -4593,7 +4602,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -4615,7 +4624,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -4626,7 +4635,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -4648,7 +4657,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
@@ -4659,7 +4668,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
@@ -4670,7 +4679,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
@@ -4703,7 +4712,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
@@ -4725,7 +4734,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -4747,7 +4756,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -4758,7 +4767,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -4791,7 +4800,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -4802,7 +4811,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -4813,7 +4822,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
@@ -4835,7 +4844,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
@@ -4879,7 +4888,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
@@ -4890,7 +4899,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
@@ -4912,7 +4921,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -4923,7 +4932,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>135</v>
       </c>
@@ -4978,7 +4987,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>136</v>
       </c>
@@ -4989,7 +4998,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>137</v>
       </c>
@@ -5000,7 +5009,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138</v>
       </c>
@@ -5011,7 +5020,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>141</v>
       </c>
@@ -5044,7 +5053,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>142</v>
       </c>
@@ -5055,7 +5064,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>143</v>
       </c>
@@ -5066,7 +5075,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>144</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>145</v>
       </c>
@@ -5088,7 +5097,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>146</v>
       </c>
@@ -5099,7 +5108,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>147</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>148</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>149</v>
       </c>
@@ -5132,7 +5141,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>150</v>
       </c>
@@ -5143,7 +5152,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>151</v>
       </c>
@@ -5154,7 +5163,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>152</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>153</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>154</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>155</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>156</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>157</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>158</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>159</v>
       </c>
@@ -5242,7 +5251,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>160</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>161</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>162</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>163</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>164</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>165</v>
       </c>
@@ -5308,7 +5317,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>166</v>
       </c>
@@ -5319,7 +5328,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>167</v>
       </c>
@@ -5330,7 +5339,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>168</v>
       </c>
@@ -5341,7 +5350,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>169</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>170</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>171</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>172</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>173</v>
       </c>
@@ -5396,7 +5405,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>174</v>
       </c>
@@ -5407,7 +5416,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>175</v>
       </c>
@@ -5418,7 +5427,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>176</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>177</v>
       </c>
@@ -5440,7 +5449,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>178</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>179</v>
       </c>
@@ -5462,7 +5471,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>180</v>
       </c>
@@ -5473,7 +5482,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>181</v>
       </c>
@@ -5484,7 +5493,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>182</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>183</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>184</v>
       </c>
@@ -5517,7 +5526,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>185</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>186</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>188</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>189</v>
       </c>
@@ -5572,7 +5581,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>190</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>191</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>192</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>193</v>
       </c>
@@ -5616,7 +5625,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>194</v>
       </c>
@@ -5627,7 +5636,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>195</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>196</v>
       </c>
@@ -5649,7 +5658,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>197</v>
       </c>
@@ -5660,7 +5669,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>198</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>199</v>
       </c>
@@ -5682,7 +5691,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>200</v>
       </c>
@@ -5693,7 +5702,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>201</v>
       </c>
@@ -5704,7 +5713,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>202</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>203</v>
       </c>
@@ -5726,7 +5735,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>204</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>205</v>
       </c>
@@ -5748,7 +5757,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>206</v>
       </c>
@@ -5759,7 +5768,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>207</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>208</v>
       </c>
@@ -5781,7 +5790,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>209</v>
       </c>
@@ -5792,7 +5801,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>210</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>211</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>212</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>213</v>
       </c>
@@ -5836,7 +5845,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>214</v>
       </c>
@@ -5847,7 +5856,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>215</v>
       </c>
@@ -5858,7 +5867,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>216</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>217</v>
       </c>
@@ -5880,7 +5889,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>218</v>
       </c>
@@ -5891,7 +5900,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>219</v>
       </c>
@@ -5902,7 +5911,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>220</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>221</v>
       </c>
@@ -5924,7 +5933,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>222</v>
       </c>
@@ -5935,7 +5944,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>223</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>224</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>225</v>
       </c>
@@ -5968,7 +5977,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>226</v>
       </c>
@@ -5979,7 +5988,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>227</v>
       </c>
@@ -5990,7 +5999,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>228</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>229</v>
       </c>
@@ -6012,7 +6021,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>230</v>
       </c>
@@ -6023,7 +6032,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>231</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>232</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>233</v>
       </c>
@@ -6056,7 +6065,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>234</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>235</v>
       </c>
@@ -6078,7 +6087,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>236</v>
       </c>
@@ -6089,7 +6098,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>237</v>
       </c>
@@ -6100,7 +6109,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>238</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>239</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>240</v>
       </c>
@@ -6133,7 +6142,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>241</v>
       </c>
@@ -6144,7 +6153,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>242</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>243</v>
       </c>
@@ -6166,7 +6175,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>244</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>245</v>
       </c>
@@ -6188,7 +6197,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>246</v>
       </c>
@@ -6199,7 +6208,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>247</v>
       </c>
@@ -6210,7 +6219,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>248</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>249</v>
       </c>
@@ -6232,7 +6241,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>250</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>251</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>252</v>
       </c>
@@ -6265,7 +6274,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>253</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>254</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>255</v>
       </c>
@@ -6298,7 +6307,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>256</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>257</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>258</v>
       </c>
@@ -6331,7 +6340,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>259</v>
       </c>
@@ -6342,7 +6351,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>260</v>
       </c>
@@ -6353,7 +6362,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>261</v>
       </c>
@@ -6364,7 +6373,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>262</v>
       </c>
@@ -6375,7 +6384,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>263</v>
       </c>
@@ -6386,7 +6395,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>264</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>265</v>
       </c>
@@ -6408,7 +6417,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>266</v>
       </c>
@@ -6419,7 +6428,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>267</v>
       </c>
@@ -6430,7 +6439,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>268</v>
       </c>
@@ -6441,7 +6450,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>269</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>270</v>
       </c>
@@ -6463,7 +6472,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>271</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>272</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>273</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>274</v>
       </c>
@@ -6507,7 +6516,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>275</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>276</v>
       </c>
@@ -6529,7 +6538,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>277</v>
       </c>
@@ -6540,7 +6549,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>278</v>
       </c>
@@ -6551,7 +6560,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>279</v>
       </c>
@@ -6562,7 +6571,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>280</v>
       </c>
@@ -6573,7 +6582,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>281</v>
       </c>
@@ -6584,7 +6593,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>282</v>
       </c>
@@ -6595,7 +6604,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>283</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>284</v>
       </c>
@@ -6617,7 +6626,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>285</v>
       </c>
@@ -6628,7 +6637,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>286</v>
       </c>
@@ -6639,7 +6648,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>287</v>
       </c>
@@ -6650,7 +6659,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>288</v>
       </c>
@@ -6661,7 +6670,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>289</v>
       </c>
@@ -6672,7 +6681,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>290</v>
       </c>
@@ -6683,7 +6692,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>291</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>292</v>
       </c>
@@ -6705,7 +6714,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>293</v>
       </c>
@@ -6716,7 +6725,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>294</v>
       </c>
@@ -6727,7 +6736,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>295</v>
       </c>
@@ -6738,7 +6747,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>296</v>
       </c>
@@ -6749,7 +6758,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>297</v>
       </c>
@@ -6760,7 +6769,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>298</v>
       </c>
@@ -6771,7 +6780,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>299</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>300</v>
       </c>
@@ -6793,7 +6802,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>301</v>
       </c>
@@ -6804,7 +6813,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>302</v>
       </c>
@@ -6815,7 +6824,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>303</v>
       </c>
@@ -6826,7 +6835,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>304</v>
       </c>
@@ -6837,7 +6846,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>305</v>
       </c>
@@ -6848,7 +6857,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>306</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>307</v>
       </c>
@@ -6870,7 +6879,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>308</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>309</v>
       </c>
@@ -6892,7 +6901,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>310</v>
       </c>
@@ -6903,7 +6912,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>311</v>
       </c>
@@ -6914,7 +6923,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>312</v>
       </c>
@@ -6925,7 +6934,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>313</v>
       </c>
@@ -6936,7 +6945,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>314</v>
       </c>
@@ -6947,7 +6956,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>315</v>
       </c>
@@ -6958,7 +6967,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>316</v>
       </c>
@@ -6969,7 +6978,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>317</v>
       </c>
@@ -6980,7 +6989,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>318</v>
       </c>
@@ -6991,7 +7000,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>319</v>
       </c>
@@ -7002,7 +7011,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>320</v>
       </c>
@@ -7013,7 +7022,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>321</v>
       </c>
@@ -7024,7 +7033,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>322</v>
       </c>
@@ -7035,7 +7044,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>323</v>
       </c>
@@ -7046,7 +7055,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>324</v>
       </c>
@@ -7057,7 +7066,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>325</v>
       </c>
@@ -7068,7 +7077,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>326</v>
       </c>
@@ -7079,7 +7088,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>327</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>328</v>
       </c>
@@ -7101,7 +7110,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>329</v>
       </c>
@@ -7112,7 +7121,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>330</v>
       </c>
@@ -7123,7 +7132,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>331</v>
       </c>
@@ -7134,7 +7143,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>332</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>333</v>
       </c>
@@ -7156,7 +7165,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>334</v>
       </c>
@@ -7181,19 +7190,19 @@
       <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.69921875" customWidth="1"/>
-    <col min="2" max="2" width="63.19921875" customWidth="1"/>
+    <col min="1" max="1" width="64.75" customWidth="1"/>
+    <col min="2" max="2" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>COUNTA(A3:A475)</f>
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7201,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -7209,7 +7218,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -7217,7 +7226,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -7225,7 +7234,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -7249,7 +7258,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>345</v>
       </c>
@@ -7257,7 +7266,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -7265,7 +7274,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>347</v>
       </c>
@@ -7273,7 +7282,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -7281,7 +7290,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>350</v>
       </c>
@@ -7297,7 +7306,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>351</v>
       </c>
@@ -7305,7 +7314,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>352</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>353</v>
       </c>
@@ -7321,7 +7330,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>354</v>
       </c>
@@ -7329,7 +7338,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>355</v>
       </c>
@@ -7337,7 +7346,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>356</v>
       </c>
@@ -7345,7 +7354,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>357</v>
       </c>
@@ -7353,7 +7362,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>358</v>
       </c>
@@ -7361,7 +7370,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -7369,7 +7378,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>360</v>
       </c>
@@ -7377,7 +7386,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>361</v>
       </c>
@@ -7385,7 +7394,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>362</v>
       </c>
@@ -7393,7 +7402,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>363</v>
       </c>
@@ -7401,7 +7410,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>364</v>
       </c>
@@ -7409,7 +7418,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>365</v>
       </c>
@@ -7417,7 +7426,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>366</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>367</v>
       </c>
@@ -7433,7 +7442,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>368</v>
       </c>
@@ -7441,7 +7450,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>369</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>370</v>
       </c>
@@ -7457,7 +7466,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>371</v>
       </c>
@@ -7465,7 +7474,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>372</v>
       </c>
@@ -7473,7 +7482,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>373</v>
       </c>
@@ -7481,7 +7490,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>374</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -7497,7 +7506,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>376</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>377</v>
       </c>
@@ -7513,7 +7522,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>378</v>
       </c>
@@ -7521,7 +7530,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>379</v>
       </c>
@@ -7529,7 +7538,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>380</v>
       </c>
@@ -7537,7 +7546,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -7545,7 +7554,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>382</v>
       </c>
@@ -7553,7 +7562,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -7561,7 +7570,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>384</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>385</v>
       </c>
@@ -7577,7 +7586,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>386</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>387</v>
       </c>
@@ -7593,7 +7602,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>388</v>
       </c>
@@ -7601,7 +7610,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>389</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>390</v>
       </c>
@@ -7617,7 +7626,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>391</v>
       </c>
@@ -7625,7 +7634,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -7633,7 +7642,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>393</v>
       </c>
@@ -7641,7 +7650,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>394</v>
       </c>
@@ -7649,7 +7658,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>395</v>
       </c>
@@ -7657,7 +7666,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>396</v>
       </c>
@@ -7665,7 +7674,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>397</v>
       </c>
@@ -7673,7 +7682,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -7681,7 +7690,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>399</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>400</v>
       </c>
@@ -7697,7 +7706,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>401</v>
       </c>
@@ -7705,7 +7714,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>402</v>
       </c>
@@ -7713,7 +7722,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>403</v>
       </c>
@@ -7721,7 +7730,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>404</v>
       </c>
@@ -7729,7 +7738,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>405</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>406</v>
       </c>
@@ -7745,7 +7754,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>407</v>
       </c>
@@ -7753,7 +7762,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>408</v>
       </c>
@@ -7761,7 +7770,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>409</v>
       </c>
@@ -7769,7 +7778,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>410</v>
       </c>
@@ -7777,7 +7786,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>411</v>
       </c>
@@ -7785,7 +7794,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -7793,7 +7802,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>413</v>
       </c>
@@ -7801,7 +7810,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>414</v>
       </c>
@@ -7809,7 +7818,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>415</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -7825,7 +7834,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>417</v>
       </c>
@@ -7833,7 +7842,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>418</v>
       </c>
@@ -7841,7 +7850,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>419</v>
       </c>
@@ -7849,7 +7858,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>420</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>421</v>
       </c>
@@ -7865,7 +7874,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>422</v>
       </c>
@@ -7873,7 +7882,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>423</v>
       </c>
@@ -7881,7 +7890,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>424</v>
       </c>
@@ -7889,7 +7898,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>425</v>
       </c>
@@ -7897,7 +7906,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>426</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>427</v>
       </c>
@@ -7913,7 +7922,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>428</v>
       </c>
@@ -7921,7 +7930,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>429</v>
       </c>
@@ -7929,7 +7938,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>430</v>
       </c>
@@ -7937,7 +7946,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>431</v>
       </c>
@@ -7945,7 +7954,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>432</v>
       </c>
@@ -7953,7 +7962,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>433</v>
       </c>
@@ -7961,7 +7970,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>434</v>
       </c>
@@ -7969,7 +7978,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>435</v>
       </c>
@@ -7977,7 +7986,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>436</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>437</v>
       </c>
@@ -7993,7 +8002,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>438</v>
       </c>
@@ -8001,7 +8010,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>439</v>
       </c>
@@ -8009,7 +8018,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>440</v>
       </c>
@@ -8017,7 +8026,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>441</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>442</v>
       </c>
@@ -8033,7 +8042,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>443</v>
       </c>
@@ -8041,7 +8050,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>444</v>
       </c>
@@ -8049,7 +8058,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>445</v>
       </c>
@@ -8057,7 +8066,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>446</v>
       </c>
@@ -8065,7 +8074,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>447</v>
       </c>
@@ -8073,7 +8082,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>448</v>
       </c>
@@ -8081,7 +8090,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>449</v>
       </c>
@@ -8089,7 +8098,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>450</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>451</v>
       </c>
@@ -8105,7 +8114,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>452</v>
       </c>
@@ -8113,7 +8122,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>453</v>
       </c>
@@ -8121,7 +8130,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>454</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>455</v>
       </c>
@@ -8137,7 +8146,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>456</v>
       </c>
@@ -8145,7 +8154,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>457</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>458</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>459</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>460</v>
       </c>
@@ -8177,7 +8186,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>461</v>
       </c>
@@ -8185,7 +8194,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>462</v>
       </c>
@@ -8193,7 +8202,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>463</v>
       </c>
@@ -8201,7 +8210,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>464</v>
       </c>
@@ -8209,7 +8218,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>465</v>
       </c>
@@ -8217,7 +8226,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>466</v>
       </c>
@@ -8225,7 +8234,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>467</v>
       </c>
@@ -8233,7 +8242,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>468</v>
       </c>
@@ -8241,7 +8250,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>469</v>
       </c>
@@ -8249,7 +8258,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>470</v>
       </c>
@@ -8257,7 +8266,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>471</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>472</v>
       </c>
@@ -8273,7 +8282,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>473</v>
       </c>
@@ -8281,7 +8290,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>474</v>
       </c>
@@ -8289,7 +8298,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>475</v>
       </c>
@@ -8297,7 +8306,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>476</v>
       </c>
@@ -8305,7 +8314,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>477</v>
       </c>
@@ -8313,7 +8322,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>478</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>479</v>
       </c>
@@ -8329,7 +8338,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>480</v>
       </c>
@@ -8337,7 +8346,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>481</v>
       </c>
@@ -8345,7 +8354,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>482</v>
       </c>
@@ -8353,7 +8362,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>483</v>
       </c>
@@ -8361,7 +8370,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>484</v>
       </c>
@@ -8369,7 +8378,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>485</v>
       </c>
@@ -8377,7 +8386,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>486</v>
       </c>
@@ -8385,7 +8394,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>487</v>
       </c>
@@ -8393,7 +8402,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>488</v>
       </c>
@@ -8401,7 +8410,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>489</v>
       </c>
@@ -8409,7 +8418,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>490</v>
       </c>
@@ -8417,7 +8426,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>491</v>
       </c>
@@ -8425,7 +8434,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>492</v>
       </c>
@@ -8433,7 +8442,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>493</v>
       </c>
@@ -8441,7 +8450,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>494</v>
       </c>
@@ -8449,7 +8458,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>495</v>
       </c>
@@ -8457,7 +8466,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>496</v>
       </c>
@@ -8465,7 +8474,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>497</v>
       </c>
@@ -8473,7 +8482,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>498</v>
       </c>
@@ -8481,7 +8490,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -8489,7 +8498,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>500</v>
       </c>
@@ -8497,7 +8506,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>501</v>
       </c>
@@ -8505,7 +8514,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>502</v>
       </c>
@@ -8513,7 +8522,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>503</v>
       </c>
@@ -8521,7 +8530,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>504</v>
       </c>
@@ -8529,7 +8538,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -8537,7 +8546,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>506</v>
       </c>
@@ -8545,7 +8554,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>507</v>
       </c>
@@ -8553,7 +8562,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>508</v>
       </c>
@@ -8561,7 +8570,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>509</v>
       </c>
@@ -8569,7 +8578,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>510</v>
       </c>
@@ -8577,7 +8586,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -8585,7 +8594,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>512</v>
       </c>
@@ -8593,7 +8602,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>513</v>
       </c>
@@ -8601,7 +8610,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>514</v>
       </c>
@@ -8609,7 +8618,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>515</v>
       </c>
@@ -8617,7 +8626,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>516</v>
       </c>
@@ -8625,7 +8634,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>517</v>
       </c>
@@ -8633,7 +8642,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>518</v>
       </c>
@@ -8641,7 +8650,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>519</v>
       </c>
@@ -8649,7 +8658,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>520</v>
       </c>
@@ -8657,7 +8666,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>521</v>
       </c>
@@ -8665,7 +8674,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>522</v>
       </c>
@@ -8673,7 +8682,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>523</v>
       </c>
@@ -8681,7 +8690,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>524</v>
       </c>
@@ -8689,7 +8698,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>525</v>
       </c>
@@ -8697,7 +8706,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>526</v>
       </c>
@@ -8705,7 +8714,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>527</v>
       </c>
@@ -8713,7 +8722,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>528</v>
       </c>
@@ -8721,7 +8730,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>529</v>
       </c>
@@ -8729,7 +8738,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>530</v>
       </c>
@@ -8737,7 +8746,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>531</v>
       </c>
@@ -8745,7 +8754,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>532</v>
       </c>
@@ -8753,7 +8762,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>533</v>
       </c>
@@ -8761,7 +8770,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>534</v>
       </c>
@@ -8769,7 +8778,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>535</v>
       </c>
@@ -8777,7 +8786,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>536</v>
       </c>
@@ -8785,7 +8794,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>537</v>
       </c>
@@ -8793,7 +8802,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>538</v>
       </c>
@@ -8801,7 +8810,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>539</v>
       </c>
@@ -8809,7 +8818,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>540</v>
       </c>
@@ -8817,7 +8826,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>541</v>
       </c>
@@ -8825,7 +8834,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>542</v>
       </c>
@@ -8833,7 +8842,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>543</v>
       </c>
@@ -8841,7 +8850,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>544</v>
       </c>
@@ -8849,7 +8858,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>545</v>
       </c>
@@ -8857,7 +8866,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>546</v>
       </c>
@@ -8865,7 +8874,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>547</v>
       </c>
@@ -8873,7 +8882,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>548</v>
       </c>
@@ -8881,7 +8890,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>549</v>
       </c>
@@ -8889,7 +8898,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>550</v>
       </c>
@@ -8897,7 +8906,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>551</v>
       </c>
@@ -8905,7 +8914,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>552</v>
       </c>
@@ -8913,7 +8922,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>553</v>
       </c>
@@ -8921,7 +8930,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>554</v>
       </c>
@@ -8929,7 +8938,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>555</v>
       </c>
@@ -8937,7 +8946,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>556</v>
       </c>
@@ -8945,7 +8954,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>557</v>
       </c>
@@ -8953,7 +8962,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>558</v>
       </c>
@@ -8961,7 +8970,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>559</v>
       </c>
@@ -8969,7 +8978,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>560</v>
       </c>
@@ -8977,7 +8986,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>561</v>
       </c>
@@ -8985,7 +8994,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>562</v>
       </c>
@@ -8993,7 +9002,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>563</v>
       </c>
@@ -9001,7 +9010,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>564</v>
       </c>
@@ -9009,7 +9018,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>565</v>
       </c>
@@ -9017,7 +9026,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>566</v>
       </c>
@@ -9025,7 +9034,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>567</v>
       </c>
@@ -9033,7 +9042,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>568</v>
       </c>
@@ -9041,7 +9050,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>569</v>
       </c>
@@ -9049,7 +9058,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>570</v>
       </c>
@@ -9057,7 +9066,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>571</v>
       </c>
@@ -9065,7 +9074,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>572</v>
       </c>
@@ -9073,7 +9082,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>573</v>
       </c>
@@ -9081,7 +9090,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>574</v>
       </c>
@@ -9089,7 +9098,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>575</v>
       </c>
@@ -9097,7 +9106,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>576</v>
       </c>
@@ -9105,7 +9114,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>577</v>
       </c>
@@ -9113,7 +9122,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>578</v>
       </c>
@@ -9121,7 +9130,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>579</v>
       </c>
@@ -9129,7 +9138,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>580</v>
       </c>
@@ -9137,7 +9146,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>581</v>
       </c>
@@ -9145,7 +9154,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>582</v>
       </c>
@@ -9153,7 +9162,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>583</v>
       </c>
@@ -9161,7 +9170,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>584</v>
       </c>
@@ -9169,7 +9178,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>585</v>
       </c>
@@ -9177,7 +9186,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>586</v>
       </c>
@@ -9185,7 +9194,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>587</v>
       </c>
@@ -9193,7 +9202,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>588</v>
       </c>
@@ -9201,7 +9210,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>589</v>
       </c>
@@ -9209,7 +9218,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>590</v>
       </c>
@@ -9217,7 +9226,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>591</v>
       </c>
@@ -9225,7 +9234,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>592</v>
       </c>
@@ -9233,7 +9242,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>593</v>
       </c>
@@ -9241,7 +9250,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>594</v>
       </c>
@@ -9249,7 +9258,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>595</v>
       </c>
@@ -9257,7 +9266,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>596</v>
       </c>
@@ -9265,7 +9274,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>597</v>
       </c>
@@ -9273,7 +9282,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>598</v>
       </c>
@@ -9281,7 +9290,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>599</v>
       </c>
@@ -9289,7 +9298,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>600</v>
       </c>
@@ -9297,7 +9306,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>601</v>
       </c>
@@ -9305,7 +9314,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>602</v>
       </c>
@@ -9313,7 +9322,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>603</v>
       </c>
@@ -9321,7 +9330,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>604</v>
       </c>
@@ -9329,7 +9338,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>605</v>
       </c>
@@ -9337,7 +9346,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>606</v>
       </c>
@@ -9345,7 +9354,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>607</v>
       </c>
@@ -9353,7 +9362,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>608</v>
       </c>
@@ -9361,7 +9370,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>609</v>
       </c>
@@ -9369,7 +9378,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>610</v>
       </c>
@@ -9377,7 +9386,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>611</v>
       </c>
@@ -9385,7 +9394,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>612</v>
       </c>
@@ -9393,7 +9402,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>613</v>
       </c>
@@ -9401,7 +9410,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>614</v>
       </c>
@@ -9409,7 +9418,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>615</v>
       </c>
@@ -9417,7 +9426,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>616</v>
       </c>
@@ -9425,7 +9434,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>617</v>
       </c>
@@ -9433,7 +9442,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>618</v>
       </c>
@@ -9441,7 +9450,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>619</v>
       </c>
@@ -9449,7 +9458,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>620</v>
       </c>
@@ -9457,7 +9466,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>621</v>
       </c>
@@ -9465,7 +9474,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>622</v>
       </c>
@@ -9473,7 +9482,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>623</v>
       </c>
@@ -9481,7 +9490,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>624</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>625</v>
       </c>
@@ -9497,7 +9506,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>626</v>
       </c>
@@ -9505,7 +9514,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>627</v>
       </c>
@@ -9513,7 +9522,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -9521,7 +9530,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>629</v>
       </c>
@@ -9529,7 +9538,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>630</v>
       </c>
@@ -9537,7 +9546,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>631</v>
       </c>
@@ -9545,7 +9554,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>632</v>
       </c>
@@ -9553,7 +9562,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>633</v>
       </c>
@@ -9561,7 +9570,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>634</v>
       </c>
@@ -9569,7 +9578,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>635</v>
       </c>
@@ -9577,7 +9586,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>636</v>
       </c>
@@ -9585,7 +9594,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>637</v>
       </c>
@@ -9593,7 +9602,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>638</v>
       </c>
@@ -9601,7 +9610,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>639</v>
       </c>
@@ -9609,7 +9618,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>640</v>
       </c>
@@ -9617,7 +9626,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>641</v>
       </c>
@@ -9625,7 +9634,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>642</v>
       </c>
@@ -9633,7 +9642,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>643</v>
       </c>
@@ -9641,7 +9650,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>644</v>
       </c>
@@ -9649,7 +9658,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>645</v>
       </c>
@@ -9657,7 +9666,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>646</v>
       </c>
@@ -9665,7 +9674,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>647</v>
       </c>
@@ -9673,7 +9682,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>648</v>
       </c>
@@ -9681,7 +9690,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>649</v>
       </c>
@@ -9689,7 +9698,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>650</v>
       </c>
@@ -9697,7 +9706,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>651</v>
       </c>
@@ -9705,7 +9714,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>652</v>
       </c>
@@ -9713,7 +9722,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>653</v>
       </c>
@@ -9721,7 +9730,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>654</v>
       </c>
@@ -9729,7 +9738,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>655</v>
       </c>
@@ -9737,7 +9746,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>656</v>
       </c>
@@ -9745,7 +9754,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>657</v>
       </c>
@@ -9753,7 +9762,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>658</v>
       </c>
@@ -9761,7 +9770,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>659</v>
       </c>
@@ -9769,7 +9778,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>660</v>
       </c>
@@ -9777,7 +9786,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>661</v>
       </c>
@@ -9785,7 +9794,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>662</v>
       </c>
@@ -9793,7 +9802,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>663</v>
       </c>
@@ -9801,7 +9810,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>664</v>
       </c>
@@ -9809,7 +9818,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>665</v>
       </c>
@@ -9817,7 +9826,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>666</v>
       </c>
@@ -9825,7 +9834,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>667</v>
       </c>
@@ -9833,7 +9842,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>668</v>
       </c>
@@ -9841,7 +9850,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>669</v>
       </c>
@@ -9849,7 +9858,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>670</v>
       </c>
@@ -9857,7 +9866,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>671</v>
       </c>
@@ -9865,7 +9874,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>672</v>
       </c>
@@ -9873,7 +9882,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>673</v>
       </c>
@@ -9895,13 +9904,13 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="37.09765625" customWidth="1"/>
-    <col min="13" max="13" width="30.69921875" customWidth="1"/>
+    <col min="12" max="12" width="37.125" customWidth="1"/>
+    <col min="13" max="13" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9918,7 +9927,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_DottedpaperMaker</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9935,7 +9944,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_EngagementRing</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9952,7 +9961,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_EngagementRing_Blood</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9969,7 +9978,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_FadedWhistle</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9986,7 +9995,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_FourFingerGlove</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10003,7 +10012,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_Friend_of_Doll</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -10020,7 +10029,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_Piano</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_PortraitOfBoy</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -10054,7 +10063,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_RedApple</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -10071,7 +10080,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_Relic</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -10088,7 +10097,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_Wine</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -10105,7 +10114,7 @@
         <v>Prototype_Texture_Item_Amulet_Advance_0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -10122,7 +10131,7 @@
         <v>Prototype_Texture_Item_Amulet_Advance_1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -10139,7 +10148,7 @@
         <v>Prototype_Texture_Item_Amulet_Advance_2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -10156,7 +10165,7 @@
         <v>Prototype_Texture_Item_Amulet_CarcassDamage</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -10173,7 +10182,7 @@
         <v>Prototype_Texture_Item_Amulet_CriticalDamage</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -10190,7 +10199,7 @@
         <v>Prototype_Texture_Item_Amulet_DollDamage</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -10207,7 +10216,7 @@
         <v>Prototype_Texture_Item_Amulet_Durability</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -10224,7 +10233,7 @@
         <v>Prototype_Texture_Item_Amulet_ElementPhysicalResis</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -10241,7 +10250,7 @@
         <v>Prototype_Texture_Item_Amulet_ErgoAmount_0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -10258,7 +10267,7 @@
         <v>Prototype_Texture_Item_Amulet_ErgoAmount_1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -10275,7 +10284,7 @@
         <v>Prototype_Texture_Item_Amulet_FallDamage</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -10292,7 +10301,7 @@
         <v>Prototype_Texture_Item_Amulet_Finesse_0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -10309,7 +10318,7 @@
         <v>Prototype_Texture_Item_Amulet_Finesse_1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -10326,7 +10335,7 @@
         <v>Prototype_Texture_Item_Amulet_Finesse_2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -10343,7 +10352,7 @@
         <v>Prototype_Texture_Item_Amulet_FuryStamina</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -10360,7 +10369,7 @@
         <v>Prototype_Texture_Item_Amulet_GaugeLarge</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -10377,7 +10386,7 @@
         <v>Prototype_Texture_Item_Amulet_GuardWeapon</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -10394,7 +10403,7 @@
         <v>Prototype_Texture_Item_Amulet_HP_L</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -10411,7 +10420,7 @@
         <v>Prototype_Texture_Item_Amulet_HP_S</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -10428,7 +10437,7 @@
         <v>Prototype_Texture_Item_Amulet_HPNatural_0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -10445,7 +10454,7 @@
         <v>Prototype_Texture_Item_Amulet_HPNatural_1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -10462,7 +10471,7 @@
         <v>Prototype_Texture_Item_Amulet_HPSPSMP</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -10479,7 +10488,7 @@
         <v>Prototype_Texture_Item_Amulet_Magazine</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -10496,7 +10505,7 @@
         <v>Prototype_Texture_Item_Amulet_MaxWeight</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -10513,7 +10522,7 @@
         <v>Prototype_Texture_Item_Amulet_MaxWeight_L</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -10530,7 +10539,7 @@
         <v>Prototype_Texture_Item_Amulet_MFAStamina</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -10547,7 +10556,7 @@
         <v>Prototype_Texture_Item_Amulet_MonsterDamage</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -10564,7 +10573,7 @@
         <v>Prototype_Texture_Item_Amulet_Motivity_0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -10581,7 +10590,7 @@
         <v>Prototype_Texture_Item_Amulet_Motivity_1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -10598,7 +10607,7 @@
         <v>Prototype_Texture_Item_Amulet_Motivity_2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -10615,7 +10624,7 @@
         <v>Prototype_Texture_Item_Amulet_MotivityFinesse</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -10632,7 +10641,7 @@
         <v>Prototype_Texture_Item_Amulet_PhysicalDefense</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -10649,7 +10658,7 @@
         <v>Prototype_Texture_Item_Amulet_PhysicalDefense_L</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -10666,7 +10675,7 @@
         <v>Prototype_Texture_Item_Amulet_PhysicalResistant</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -10683,7 +10692,7 @@
         <v>Prototype_Texture_Item_Amulet_PhysicalWeight</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -10700,7 +10709,7 @@
         <v>Prototype_Texture_Item_Amulet_RecoverErgo</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -10717,7 +10726,7 @@
         <v>Prototype_Texture_Item_Amulet_RecoverErgo_1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -10734,7 +10743,7 @@
         <v>Prototype_Texture_Item_Amulet_RecoverErgo_2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -10751,7 +10760,7 @@
         <v>Prototype_Texture_Item_Amulet_RegionGauge</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -10768,7 +10777,7 @@
         <v>Prototype_Texture_Item_Amulet_Resistant</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -10785,7 +10794,7 @@
         <v>Prototype_Texture_Item_Amulet_Resistant_1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -10802,7 +10811,7 @@
         <v>Prototype_Texture_Item_Amulet_Stamina</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -10819,7 +10828,7 @@
         <v>Prototype_Texture_Item_Amulet_Stamina_L</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -10836,7 +10845,7 @@
         <v>Prototype_Texture_Item_Amulet_StaminaSpeed</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -10853,7 +10862,7 @@
         <v>Prototype_Texture_Item_Amulet_StrongWeapon</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -10870,7 +10879,7 @@
         <v>Prototype_Texture_Item_Blade_AcidGreatSword</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -10887,7 +10896,7 @@
         <v>Prototype_Texture_Item_Blade_Bbayonet</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -10904,7 +10913,7 @@
         <v>Prototype_Texture_Item_Blade_ChainScythe</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -10921,7 +10930,7 @@
         <v>Prototype_Texture_Item_Blade_Charkram</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -10938,7 +10947,7 @@
         <v>Prototype_Texture_Item_Blade_ClockSword</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -10955,7 +10964,7 @@
         <v>Prototype_Texture_Item_Blade_CoilRod</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -10972,7 +10981,7 @@
         <v>Prototype_Texture_Item_Blade_CrystalAxe</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -10989,7 +10998,7 @@
         <v>Prototype_Texture_Item_Blade_CrystalSpear</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -11006,7 +11015,7 @@
         <v>Prototype_Texture_Item_Blade_CrystalSword</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -11023,7 +11032,7 @@
         <v>Prototype_Texture_Item_Blade_DragonGlaive_01</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -11040,7 +11049,7 @@
         <v>Prototype_Texture_Item_Blade_ElectricCutter</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -11057,7 +11066,7 @@
         <v>Prototype_Texture_Item_Blade_ElectricHammer</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -11074,7 +11083,7 @@
         <v>Prototype_Texture_Item_Blade_FirePickaxe</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -11091,7 +11100,7 @@
         <v>Prototype_Texture_Item_Blade_FlameDagger</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -11108,7 +11117,7 @@
         <v>Prototype_Texture_Item_Blade_FlameSword</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -11125,7 +11134,7 @@
         <v>Prototype_Texture_Item_Blade_GiantWrench</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -11142,7 +11151,7 @@
         <v>Prototype_Texture_Item_Blade_Glaive</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -11159,7 +11168,7 @@
         <v>Prototype_Texture_Item_Blade_GreatAxe</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -11176,7 +11185,7 @@
         <v>Prototype_Texture_Item_Blade_GreatSpear</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -11193,7 +11202,7 @@
         <v>Prototype_Texture_Item_Blade_Halberd</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -11210,7 +11219,7 @@
         <v>Prototype_Texture_Item_Blade_Hwando</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -11227,7 +11236,7 @@
         <v>Prototype_Texture_Item_Blade_KkabiClub</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -11244,7 +11253,7 @@
         <v>Prototype_Texture_Item_Blade_NoseStaff_01_Large</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -11261,7 +11270,7 @@
         <v>Prototype_Texture_Item_Blade_NoseStaff_02_Medium</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -11278,7 +11287,7 @@
         <v>Prototype_Texture_Item_Blade_NoseStaff_03_Small</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -11295,7 +11304,7 @@
         <v>Prototype_Texture_Item_Blade_O_LG_F_S_02</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -11312,7 +11321,7 @@
         <v>Prototype_Texture_Item_Blade_O_MG_F_S_02</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -11329,7 +11338,7 @@
         <v>Prototype_Texture_Item_Blade_O_MG_S_M_01</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>Prototype_Texture_Item_Blade_O_SG_S_B_01</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -11363,7 +11372,7 @@
         <v>Prototype_Texture_Item_Blade_O_SG_S_P_01</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -11380,7 +11389,7 @@
         <v>Prototype_Texture_Item_Blade_O_SS_F_A_01</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -11397,7 +11406,7 @@
         <v>Prototype_Texture_Item_Blade_Rapier</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -11414,7 +11423,7 @@
         <v>Prototype_Texture_Item_Blade_RockDrill</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -11431,7 +11440,7 @@
         <v>Prototype_Texture_Item_Blade_Saber</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -11448,7 +11457,7 @@
         <v>Prototype_Texture_Item_Blade_ScissorSword</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -11465,7 +11474,7 @@
         <v>Prototype_Texture_Item_Blade_SevenSword</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -11482,7 +11491,7 @@
         <v>Prototype_Texture_Item_Blade_ShieldSpear</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -11499,7 +11508,7 @@
         <v>Prototype_Texture_Item_Blade_Shovel</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -11516,7 +11525,7 @@
         <v>Prototype_Texture_Item_Blade_SwordLance</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -11533,7 +11542,7 @@
         <v>Prototype_Texture_Item_Blade_T_MS_S_M_01</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -11550,7 +11559,7 @@
         <v>Prototype_Texture_Item_Blade_TransformGreatSword</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -11567,7 +11576,7 @@
         <v>Prototype_Texture_Item_Blade_Trident</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -11584,7 +11593,7 @@
         <v>Prototype_Texture_Item_Blade_Tsaw</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -11601,7 +11610,7 @@
         <v>Prototype_Texture_Item_Blade_UmbrellaSword</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -11618,7 +11627,7 @@
         <v>Prototype_Texture_Item_Catridge_0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -11635,7 +11644,7 @@
         <v>Prototype_Texture_Item_Catridge_A_1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -11652,7 +11661,7 @@
         <v>Prototype_Texture_Item_Catridge_A_2</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -11669,7 +11678,7 @@
         <v>Prototype_Texture_Item_Catridge_A_3</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -11686,7 +11695,7 @@
         <v>Prototype_Texture_Item_Catridge_B_1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -11703,7 +11712,7 @@
         <v>Prototype_Texture_Item_Catridge_B_2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -11720,7 +11729,7 @@
         <v>Prototype_Texture_Item_Catridge_B_3</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -11737,7 +11746,7 @@
         <v>Prototype_Texture_Item_Catridge_C_1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -11754,7 +11763,7 @@
         <v>Prototype_Texture_Item_Catridge_C_2</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -11771,7 +11780,7 @@
         <v>Prototype_Texture_Item_Catridge_C_3</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -11788,7 +11797,7 @@
         <v>Prototype_Texture_Item_Convertor_0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -11805,7 +11814,7 @@
         <v>Prototype_Texture_Item_Convertor_A_1</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -11822,7 +11831,7 @@
         <v>Prototype_Texture_Item_Convertor_A_2</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -11839,7 +11848,7 @@
         <v>Prototype_Texture_Item_Convertor_A_3</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -11856,7 +11865,7 @@
         <v>Prototype_Texture_Item_Convertor_B_1</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -11873,7 +11882,7 @@
         <v>Prototype_Texture_Item_Convertor_B_2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -11890,7 +11899,7 @@
         <v>Prototype_Texture_Item_Convertor_B_3</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -11907,7 +11916,7 @@
         <v>Prototype_Texture_Item_Convertor_C_1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -11924,7 +11933,7 @@
         <v>Prototype_Texture_Item_Convertor_C_2</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -11941,7 +11950,7 @@
         <v>Prototype_Texture_Item_Convertor_C_3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -11958,7 +11967,7 @@
         <v>Prototype_Texture_Item_Frame_0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -11975,7 +11984,7 @@
         <v>Prototype_Texture_Item_Frame_A_1</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -11992,7 +12001,7 @@
         <v>Prototype_Texture_Item_Frame_A_2</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -12009,7 +12018,7 @@
         <v>Prototype_Texture_Item_Frame_A_3</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -12026,7 +12035,7 @@
         <v>Prototype_Texture_Item_Frame_B_1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -12043,7 +12052,7 @@
         <v>Prototype_Texture_Item_Frame_B_2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -12060,7 +12069,7 @@
         <v>Prototype_Texture_Item_Frame_B_3</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -12077,7 +12086,7 @@
         <v>Prototype_Texture_Item_Frame_C_1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -12094,7 +12103,7 @@
         <v>Prototype_Texture_Item_Frame_C_2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -12111,7 +12120,7 @@
         <v>Prototype_Texture_Item_Frame_C_3</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -12128,7 +12137,7 @@
         <v>Prototype_Texture_Item_Handle_AcidGreatSword</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -12145,7 +12154,7 @@
         <v>Prototype_Texture_Item_Handle_Bbayonet</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -12162,7 +12171,7 @@
         <v>Prototype_Texture_Item_Handle_ChainScythe</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -12179,7 +12188,7 @@
         <v>Prototype_Texture_Item_Handle_Charkram</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -12196,7 +12205,7 @@
         <v>Prototype_Texture_Item_Handle_ClockSword</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -12213,7 +12222,7 @@
         <v>Prototype_Texture_Item_Handle_CoilRod</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -12230,7 +12239,7 @@
         <v>Prototype_Texture_Item_Handle_CrystalAxe</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -12247,7 +12256,7 @@
         <v>Prototype_Texture_Item_Handle_CrystalSpear</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -12264,7 +12273,7 @@
         <v>Prototype_Texture_Item_Handle_CrystalSword</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -12281,7 +12290,7 @@
         <v>Prototype_Texture_Item_Handle_DragonGlaive_01</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -12298,7 +12307,7 @@
         <v>Prototype_Texture_Item_Handle_ElectricCutter</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -12315,7 +12324,7 @@
         <v>Prototype_Texture_Item_Handle_ElectricHammer</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -12332,7 +12341,7 @@
         <v>Prototype_Texture_Item_Handle_FirePickaxe</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -12349,7 +12358,7 @@
         <v>Prototype_Texture_Item_Handle_FlameDagger</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -12366,7 +12375,7 @@
         <v>Prototype_Texture_Item_Handle_FlameSword</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -12383,7 +12392,7 @@
         <v>Prototype_Texture_Item_Handle_GiantWrench</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -12400,7 +12409,7 @@
         <v>Prototype_Texture_Item_Handle_Glaive</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -12417,7 +12426,7 @@
         <v>Prototype_Texture_Item_Handle_GreaatSpear</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12434,7 +12443,7 @@
         <v>Prototype_Texture_Item_Handle_GreatAxe</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -12451,7 +12460,7 @@
         <v>Prototype_Texture_Item_Handle_Halberd</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -12468,7 +12477,7 @@
         <v>Prototype_Texture_Item_Handle_Hwando</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -12485,7 +12494,7 @@
         <v>Prototype_Texture_Item_Handle_KkabiClub</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -12502,7 +12511,7 @@
         <v>Prototype_Texture_Item_Handle_NoseStaff_01_Large</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -12519,7 +12528,7 @@
         <v>Prototype_Texture_Item_Handle_NoseStaff_02_Medium</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -12536,7 +12545,7 @@
         <v>Prototype_Texture_Item_Handle_NoseStaff_03_Small</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -12553,7 +12562,7 @@
         <v>Prototype_Texture_Item_Handle_O_LG_F_S_02</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -12570,7 +12579,7 @@
         <v>Prototype_Texture_Item_Handle_O_MG_F_S_02</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -12587,7 +12596,7 @@
         <v>Prototype_Texture_Item_Handle_O_MG_S_M_01</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -12604,7 +12613,7 @@
         <v>Prototype_Texture_Item_Handle_O_SG_S_B_01</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -12621,7 +12630,7 @@
         <v>Prototype_Texture_Item_Handle_O_SG_S_P_01</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -12638,7 +12647,7 @@
         <v>Prototype_Texture_Item_Handle_O_SS_F_A_01</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -12655,7 +12664,7 @@
         <v>Prototype_Texture_Item_Handle_Rapier</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -12672,7 +12681,7 @@
         <v>Prototype_Texture_Item_Handle_RockDrill</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -12689,7 +12698,7 @@
         <v>Prototype_Texture_Item_Handle_Saber</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -12706,7 +12715,7 @@
         <v>Prototype_Texture_Item_Handle_ScissorSword</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -12723,7 +12732,7 @@
         <v>Prototype_Texture_Item_Handle_SevenSword</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -12740,7 +12749,7 @@
         <v>Prototype_Texture_Item_Handle_ShieldSpear</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -12757,7 +12766,7 @@
         <v>Prototype_Texture_Item_Handle_Shovel</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -12774,7 +12783,7 @@
         <v>Prototype_Texture_Item_Handle_SwordLance</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -12791,7 +12800,7 @@
         <v>Prototype_Texture_Item_Handle_T_MS_S_M_01</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -12808,7 +12817,7 @@
         <v>Prototype_Texture_Item_Handle_TransformGreatSword</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -12825,7 +12834,7 @@
         <v>Prototype_Texture_Item_Handle_Trident</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -12842,7 +12851,7 @@
         <v>Prototype_Texture_Item_Handle_Tsaw</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -12859,7 +12868,7 @@
         <v>Prototype_Texture_Item_Handle_UmbrellaSword</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -12876,7 +12885,7 @@
         <v>Prototype_Texture_Item_Heroic_ChainScythe_01</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -12893,7 +12902,7 @@
         <v>Prototype_Texture_Item_Heroic_Charkram_01</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -12910,7 +12919,7 @@
         <v>Prototype_Texture_Item_Heroic_CrystalSword_01</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -12927,7 +12936,7 @@
         <v>Prototype_Texture_Item_Heroic_DragonGlaive_01</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -12944,7 +12953,7 @@
         <v>Prototype_Texture_Item_Heroic_Hwando_01</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -12961,7 +12970,7 @@
         <v>Prototype_Texture_Item_Heroic_KkabiClub_01</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -12978,7 +12987,7 @@
         <v>Prototype_Texture_Item_Heroic_NoseStaff_01_Large</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -12995,7 +13004,7 @@
         <v>Prototype_Texture_Item_Heroic_NoseStaff_02_Medium</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -13012,7 +13021,7 @@
         <v>Prototype_Texture_Item_Heroic_NoseStaff_03_Small</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -13029,7 +13038,7 @@
         <v>Prototype_Texture_Item_Heroic_ScissorSword_01</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -13046,7 +13055,7 @@
         <v>Prototype_Texture_Item_Heroic_SevenSword_01</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -13063,7 +13072,7 @@
         <v>Prototype_Texture_Item_Heroic_TransformGreatSword_01</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -13080,7 +13089,7 @@
         <v>Prototype_Texture_Item_Heroic_Trident_01</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -13097,7 +13106,7 @@
         <v>Prototype_Texture_Item_Heroic_UmbrellaSword_01</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -13114,7 +13123,7 @@
         <v>Prototype_Texture_Item_Item_Ample_Property_Purification</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -13131,7 +13140,7 @@
         <v>Prototype_Texture_Item_Item_Ample_Property-Resistance</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -13148,7 +13157,7 @@
         <v>Prototype_Texture_Item_Item_Ample_Special_Purification</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -13165,7 +13174,7 @@
         <v>Prototype_Texture_Item_Item_Ample_Special-Resistance</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -13182,7 +13191,7 @@
         <v>Prototype_Texture_Item_Item_Arm_1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -13199,7 +13208,7 @@
         <v>Prototype_Texture_Item_Item_Arm_AcidLuncher</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -13216,7 +13225,7 @@
         <v>Prototype_Texture_Item_Item_Arm_Aegis</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -13233,7 +13242,7 @@
         <v>Prototype_Texture_Item_Item_Arm_FA_01</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -13250,7 +13259,7 @@
         <v>Prototype_Texture_Item_Item_Arm_FB_01</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -13267,7 +13276,7 @@
         <v>Prototype_Texture_Item_Item_Arm_GG_01</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -13284,7 +13293,7 @@
         <v>Prototype_Texture_Item_Item_Arm_PB_01</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -13301,7 +13310,7 @@
         <v>Prototype_Texture_Item_Item_Arm_ShotGun</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -13318,7 +13327,7 @@
         <v>Prototype_Texture_Item_Item_Arm_SniperCannon</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -13335,7 +13344,7 @@
         <v>Prototype_Texture_Item_Item_BlackBox_Benigni</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -13352,7 +13361,7 @@
         <v>Prototype_Texture_Item_Item_BlackBox_Krat</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -13369,7 +13378,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_01</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_02</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -13403,7 +13412,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_03</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -13420,7 +13429,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_04</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -13437,7 +13446,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_05</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -13454,7 +13463,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_06</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -13471,7 +13480,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_07</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -13488,7 +13497,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_08</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -13505,7 +13514,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_09</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -13522,7 +13531,7 @@
         <v>Prototype_Texture_Item_Item_BossErgo_10</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -13539,7 +13548,7 @@
         <v>Prototype_Texture_Item_Item_Canister_Acid_01</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -13556,7 +13565,7 @@
         <v>Prototype_Texture_Item_Item_Canister_Electric_01</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>Prototype_Texture_Item_Item_Canister_Fire_01</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -13590,7 +13599,7 @@
         <v>Prototype_Texture_Item_Item_Cartridge_Frenzy_L</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -13607,7 +13616,7 @@
         <v>Prototype_Texture_Item_Item_Cartridge_Frenzy_M</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -13624,7 +13633,7 @@
         <v>Prototype_Texture_Item_Item_Cartridge_Frenzy_S</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -13641,7 +13650,7 @@
         <v>Prototype_Texture_Item_Item_Cartridge_Stamina</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -13658,7 +13667,7 @@
         <v>Prototype_Texture_Item_Item_Chain</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -13675,7 +13684,7 @@
         <v>Prototype_Texture_Item_Item_Core</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -13692,7 +13701,7 @@
         <v>Prototype_Texture_Item_Item_Crank_Advance</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -13709,7 +13718,7 @@
         <v>Prototype_Texture_Item_Item_Crank_Finesse</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -13726,7 +13735,7 @@
         <v>Prototype_Texture_Item_Item_Crank_Motivity</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -13743,7 +13752,7 @@
         <v>Prototype_Texture_Item_Item_Crank_Reset</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -13760,7 +13769,7 @@
         <v>Prototype_Texture_Item_Item_Death</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -13777,7 +13786,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_L1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -13794,7 +13803,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_L2</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -13811,7 +13820,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_L3</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -13828,7 +13837,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_M1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -13845,7 +13854,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_M1_2</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -13862,7 +13871,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_M2</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -13879,7 +13888,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_M3</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -13896,7 +13905,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_S1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -13913,7 +13922,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_S2</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -13930,7 +13939,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_S3</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -13947,7 +13956,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_S4</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -13964,7 +13973,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_XL1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -13981,7 +13990,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_XL2</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -13998,7 +14007,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_XL3</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -14015,7 +14024,7 @@
         <v>Prototype_Texture_Item_Item_DropErgo_XL4</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -14032,7 +14041,7 @@
         <v>Prototype_Texture_Item_Item_DustCat</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -14049,7 +14058,7 @@
         <v>Prototype_Texture_Item_Item_EgnimaAssemblyTool</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -14066,7 +14075,7 @@
         <v>Prototype_Texture_Item_Item_EmergencyRepairtool</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -14083,7 +14092,7 @@
         <v>Prototype_Texture_Item_Item_Envelop</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -14100,7 +14109,7 @@
         <v>Prototype_Texture_Item_Item_Ergo_Protect</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -14117,7 +14126,7 @@
         <v>Prototype_Texture_Item_Item_ErgoAbsorber</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -14134,7 +14143,7 @@
         <v>Prototype_Texture_Item_Item_GoldenFruit</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -14151,7 +14160,7 @@
         <v>Prototype_Texture_Item_Item_Granade_Acid_01</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -14168,7 +14177,7 @@
         <v>Prototype_Texture_Item_Item_Granade_Cluster_01</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -14185,7 +14194,7 @@
         <v>Prototype_Texture_Item_Item_Granade_ShotPut_01</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -14202,7 +14211,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Acid</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -14219,7 +14228,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Critical</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -14236,7 +14245,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Destroy</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -14253,7 +14262,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Durability</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -14270,7 +14279,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Electric</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -14287,7 +14296,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Fire</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -14304,7 +14313,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Guard</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -14321,7 +14330,7 @@
         <v>Prototype_Texture_Item_Item_GrindStone_Perfect</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -14338,7 +14347,7 @@
         <v>Prototype_Texture_Item_Item_Helper</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -14355,7 +14364,7 @@
         <v>Prototype_Texture_Item_Item_HighFrameAmplifier</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -14372,7 +14381,7 @@
         <v>Prototype_Texture_Item_Item_Lamp</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -14389,7 +14398,7 @@
         <v>Prototype_Texture_Item_Item_Lamp_On</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>268</v>
       </c>
@@ -14406,7 +14415,7 @@
         <v>Prototype_Texture_Item_Item_LampBuff</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>269</v>
       </c>
@@ -14423,7 +14432,7 @@
         <v>Prototype_Texture_Item_Item_Molotov</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -14440,7 +14449,7 @@
         <v>Prototype_Texture_Item_Item_Moonstone_1</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -14457,7 +14466,7 @@
         <v>Prototype_Texture_Item_Item_Moonstone_2</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>272</v>
       </c>
@@ -14474,7 +14483,7 @@
         <v>Prototype_Texture_Item_Item_Moonstone_3</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -14491,7 +14500,7 @@
         <v>Prototype_Texture_Item_Item_Moonstone_4</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -14508,7 +14517,7 @@
         <v>Prototype_Texture_Item_Item_Moonstone_H1</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -14525,7 +14534,7 @@
         <v>Prototype_Texture_Item_Item_Moonstone_H2</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -14542,7 +14551,7 @@
         <v>Prototype_Texture_Item_Item_Newspaper</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -14559,7 +14568,7 @@
         <v>Prototype_Texture_Item_Item_Oilbottle</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -14576,7 +14585,7 @@
         <v>Prototype_Texture_Item_Item_Overcharger</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -14593,7 +14602,7 @@
         <v>Prototype_Texture_Item_Item_PiercingSpike</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -14610,7 +14619,7 @@
         <v>Prototype_Texture_Item_Item_Potion_01</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -14627,7 +14636,7 @@
         <v>Prototype_Texture_Item_Item_Potion_02</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -14644,7 +14653,7 @@
         <v>Prototype_Texture_Item_Item_Potion_03</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -14661,7 +14670,7 @@
         <v>Prototype_Texture_Item_Item_Potion_04</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -14678,7 +14687,7 @@
         <v>Prototype_Texture_Item_Item_Quartz</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -14695,7 +14704,7 @@
         <v>Prototype_Texture_Item_Item_RegionCall</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -14712,7 +14721,7 @@
         <v>Prototype_Texture_Item_Item_RegionPlug</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -14729,7 +14738,7 @@
         <v>Prototype_Texture_Item_Item_Sharpentool</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -14746,7 +14755,7 @@
         <v>Prototype_Texture_Item_Item_Sharpentool_Acid</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>289</v>
       </c>
@@ -14763,7 +14772,7 @@
         <v>Prototype_Texture_Item_Item_Sharpentool_Alterationtool</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>290</v>
       </c>
@@ -14780,7 +14789,7 @@
         <v>Prototype_Texture_Item_Item_Sharpentool_Elec</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>291</v>
       </c>
@@ -14797,7 +14806,7 @@
         <v>Prototype_Texture_Item_Item_Sharpentool_Fire</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>292</v>
       </c>
@@ -14814,7 +14823,7 @@
         <v>Prototype_Texture_Item_Item_SlaveRecovery</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -14831,7 +14840,7 @@
         <v>Prototype_Texture_Item_Item_Teleport</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -14848,7 +14857,7 @@
         <v>Prototype_Texture_Item_Item_Teleport_2</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -14865,7 +14874,7 @@
         <v>Prototype_Texture_Item_Item_ThermiteFire</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>296</v>
       </c>
@@ -14882,7 +14891,7 @@
         <v>Prototype_Texture_Item_Item_Throw_Gear</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -14899,7 +14908,7 @@
         <v>Prototype_Texture_Item_Item_Throw_Saw</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -14916,7 +14925,7 @@
         <v>Prototype_Texture_Item_Item_ThrowBattery</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -14933,7 +14942,7 @@
         <v>Prototype_Texture_Item_Item_TreeFacilit_L</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -14950,7 +14959,7 @@
         <v>Prototype_Texture_Item_Item_TreeFacilit_M</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -14967,7 +14976,7 @@
         <v>Prototype_Texture_Item_Item_TreeFacilit_S</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -14984,7 +14993,7 @@
         <v>Prototype_Texture_Item_Item_VenigniCoin</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -15001,7 +15010,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Acid</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -15018,7 +15027,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Advance</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -15035,7 +15044,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Berserker</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -15052,7 +15061,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Brave</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -15069,7 +15078,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Electric</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -15086,7 +15095,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Explosion</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -15103,7 +15112,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Fire</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -15120,7 +15129,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Friend</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -15137,7 +15146,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_guts</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>312</v>
       </c>
@@ -15154,7 +15163,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Heal</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>313</v>
       </c>
@@ -15171,7 +15180,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Protect</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -15188,7 +15197,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Provoke</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>315</v>
       </c>
@@ -15205,7 +15214,7 @@
         <v>Prototype_Texture_Item_Item_WishStone_Stamina</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>316</v>
       </c>
@@ -15222,7 +15231,7 @@
         <v>Prototype_Texture_Item_Lining_0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>317</v>
       </c>
@@ -15239,7 +15248,7 @@
         <v>Prototype_Texture_Item_Lining_A_0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>318</v>
       </c>
@@ -15256,7 +15265,7 @@
         <v>Prototype_Texture_Item_Lining_A_1</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>319</v>
       </c>
@@ -15273,7 +15282,7 @@
         <v>Prototype_Texture_Item_Lining_A_2</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>320</v>
       </c>
@@ -15290,7 +15299,7 @@
         <v>Prototype_Texture_Item_Lining_A_3</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -15307,7 +15316,7 @@
         <v>Prototype_Texture_Item_Lining_B_0</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>322</v>
       </c>
@@ -15324,7 +15333,7 @@
         <v>Prototype_Texture_Item_Lining_B_1</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>323</v>
       </c>
@@ -15341,7 +15350,7 @@
         <v>Prototype_Texture_Item_Lining_B_2</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -15358,7 +15367,7 @@
         <v>Prototype_Texture_Item_Lining_B_3</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>325</v>
       </c>
@@ -15375,7 +15384,7 @@
         <v>Prototype_Texture_Item_Lining_C_0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>326</v>
       </c>
@@ -15392,7 +15401,7 @@
         <v>Prototype_Texture_Item_Lining_C_1</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>327</v>
       </c>
@@ -15409,7 +15418,7 @@
         <v>Prototype_Texture_Item_Lining_C_2</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -15426,7 +15435,7 @@
         <v>Prototype_Texture_Item_Lining_C_3</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>329</v>
       </c>
@@ -15443,7 +15452,7 @@
         <v>Prototype_Texture_Item_Q_ArmOfGod</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -15460,7 +15469,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_AntoniaMedicine</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>331</v>
       </c>
@@ -15477,7 +15486,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_Belle</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -15494,7 +15503,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_BlackBox_Benigni01</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -15511,7 +15520,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_BlackBox_Benigni02</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>334</v>
       </c>
@@ -15528,7 +15537,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_BlackBox_Benigni03</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>335</v>
       </c>
@@ -15545,7 +15554,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_BlackBox_Krat01</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -15562,7 +15571,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_BlackBox_Krat02</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>337</v>
       </c>
@@ -15579,7 +15588,7 @@
         <v>Prototype_Texture_Item_TorisionCoil_BlackBox_Krat03</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>338</v>
       </c>
